--- a/Nimbus.xlsx
+++ b/Nimbus.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Competitors" sheetId="1" r:id="rId1"/>
     <sheet name="Revenue" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -613,14 +613,14 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="38.5" customWidth="1"/>
+    <col min="5" max="5" width="76.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -748,7 +748,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
